--- a/Complete-spreadsheets/TASK/Cz-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/Cz-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B5F8F6-86BB-47B4-8302-3BF5D371EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02638BD7-2A3E-453C-AC02-55EA0C766706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>56.101287645069277</v>
-      </c>
-      <c r="C2" s="3">
-        <v>23.4439481950219</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.8044908923440994</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.156050595027283</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.805835676343416</v>
+      <c r="B2" s="4">
+        <v>37.810923823536811</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.967449807120159</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.9411781158041999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.359535114932628</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.9231050348891909</v>
       </c>
       <c r="G2">
-        <v>91.311613003805945</v>
+        <v>61.002191896283001</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -538,22 +538,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>37.810923823536811</v>
+        <v>1447.540317117448</v>
       </c>
       <c r="C3" s="4">
-        <v>12.967449807120159</v>
+        <v>95.281229006976176</v>
       </c>
       <c r="D3" s="4">
-        <v>4.9411781158041999</v>
+        <v>11.847196008272849</v>
       </c>
       <c r="E3" s="4">
-        <v>3.359535114932628</v>
+        <v>4.3413750411900676</v>
       </c>
       <c r="F3" s="4">
-        <v>1.9231050348891909</v>
+        <v>2.2440683436774989</v>
       </c>
       <c r="G3">
-        <v>61.002191896283001</v>
+        <v>1561.2541855175641</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -575,23 +575,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>28.65023067673129</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20.298850243426461</v>
-      </c>
-      <c r="D4" s="3">
-        <v>11.41719621549216</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.9081188035394949</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.2392119096313681</v>
+      <c r="B4" s="4">
+        <v>10.831675413455169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>28.37838606129537</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.6852395480448514</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.627698159198669</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.334868618073211</v>
       </c>
       <c r="G4">
-        <v>66.513607848820783</v>
+        <v>54.857867800067268</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -602,8 +602,8 @@
       <c r="J4">
         <v>14</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -614,22 +614,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>1447.540317117448</v>
+        <v>87.662357693130332</v>
       </c>
       <c r="C5" s="4">
-        <v>95.281229006976176</v>
+        <v>17.171830465746769</v>
       </c>
       <c r="D5" s="4">
-        <v>11.847196008272849</v>
+        <v>5.7980572569104183</v>
       </c>
       <c r="E5" s="4">
-        <v>4.3413750411900676</v>
+        <v>4.3029574286873498</v>
       </c>
       <c r="F5" s="4">
-        <v>2.2440683436774989</v>
+        <v>3.89886885113166</v>
       </c>
       <c r="G5">
-        <v>1561.2541855175641</v>
+        <v>118.8340716956065</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -652,22 +652,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>10.831675413455169</v>
+        <v>29.919699939009931</v>
       </c>
       <c r="C6" s="4">
-        <v>28.37838606129537</v>
+        <v>187.08694689734179</v>
       </c>
       <c r="D6" s="4">
-        <v>9.6852395480448514</v>
+        <v>17.885097457524029</v>
       </c>
       <c r="E6" s="4">
-        <v>3.627698159198669</v>
+        <v>9.2419710659011169</v>
       </c>
       <c r="F6" s="4">
-        <v>2.334868618073211</v>
+        <v>4.2439958255104422</v>
       </c>
       <c r="G6">
-        <v>54.857867800067268</v>
+        <v>248.3777111852875</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -689,23 +689,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>21.059371886295441</v>
-      </c>
-      <c r="C7" s="3">
-        <v>32.239069674654431</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.3310539425737429</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.7096343296451422</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.4297194989152211</v>
+      <c r="B7" s="4">
+        <v>18.67622620671305</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41.450368762935618</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.7441965528854313</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.0678280417971253</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.6769541831096841</v>
       </c>
       <c r="G7">
-        <v>61.768849332083967</v>
+        <v>77.615573747440891</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -727,23 +727,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>45.389419338817909</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10.34654078566588</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.2772298952180838</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5400386109259729</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.1081625965532429</v>
+      <c r="B8" s="4">
+        <v>39.518513409862891</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35.411497546441701</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28.169953493168229</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.8553035102603603</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.314994668602731</v>
       </c>
       <c r="G8">
-        <v>68.661391227181085</v>
+        <v>115.2702626283359</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -765,23 +765,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>9848.3394662920618</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1006.016548828861</v>
-      </c>
-      <c r="D9" s="3">
-        <v>72.942700105629783</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10.388115537368179</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.2505578358248148</v>
+      <c r="B9" s="4">
+        <v>22.327974416867882</v>
+      </c>
+      <c r="C9" s="4">
+        <v>46.454782021503583</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.8161357862647378</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.6949669137382486</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.4176780501102293</v>
       </c>
       <c r="G9">
-        <v>10940.93738859975</v>
+        <v>85.71153718848467</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
@@ -803,23 +803,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>46.739892842285244</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14.127586973250621</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.5237821833227301</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.0616173395362436</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.5911941186119689</v>
+      <c r="B10" s="4">
+        <v>14.366616110443321</v>
+      </c>
+      <c r="C10" s="4">
+        <v>33.779014879715326</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16.746098651755052</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.2860155220583334</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.551541888005497</v>
       </c>
       <c r="G10">
-        <v>73.044073457006803</v>
+        <v>76.729287051977522</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -842,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>87.662357693130332</v>
+        <v>49.734099248608807</v>
       </c>
       <c r="C11" s="4">
-        <v>17.171830465746769</v>
+        <v>64.934665669885732</v>
       </c>
       <c r="D11" s="4">
-        <v>5.7980572569104183</v>
+        <v>8.6340027752338315</v>
       </c>
       <c r="E11" s="4">
-        <v>4.3029574286873498</v>
+        <v>7.8724772824589042</v>
       </c>
       <c r="F11" s="4">
-        <v>3.89886885113166</v>
+        <v>5.9838563097097399</v>
       </c>
       <c r="G11">
-        <v>118.8340716956065</v>
+        <v>137.15910128589701</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>29.919699939009931</v>
+        <v>22.997577865505981</v>
       </c>
       <c r="C12" s="4">
-        <v>187.08694689734179</v>
+        <v>65.427929038497822</v>
       </c>
       <c r="D12" s="4">
-        <v>17.885097457524029</v>
+        <v>15.33610361683899</v>
       </c>
       <c r="E12" s="4">
-        <v>9.2419710659011169</v>
+        <v>5.6096587684949011</v>
       </c>
       <c r="F12" s="4">
-        <v>4.2439958255104422</v>
+        <v>6.9574883869403914</v>
       </c>
       <c r="G12">
-        <v>248.3777111852875</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -917,23 +917,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>25.709307160705741</v>
-      </c>
-      <c r="C13" s="3">
-        <v>29.167522252486659</v>
-      </c>
-      <c r="D13" s="3">
-        <v>16.865040762204298</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6.0024211469967241</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.3647137266916154</v>
+      <c r="B13" s="4">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C13" s="4">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G13">
-        <v>82.109005049085027</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -955,23 +955,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>16.079108685864458</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.7940118474465088</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.0142927334192571</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.0614553617908404</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4.5869894205610757</v>
+      <c r="B14" s="4">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C14" s="4">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G14">
-        <v>43.53585804908213</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -997,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>18.67622620671305</v>
+        <v>22.997577865505981</v>
       </c>
       <c r="C15" s="4">
-        <v>41.450368762935618</v>
+        <v>65.427929038497822</v>
       </c>
       <c r="D15" s="4">
-        <v>7.7441965528854313</v>
+        <v>15.33610361683899</v>
       </c>
       <c r="E15" s="4">
-        <v>5.0678280417971253</v>
+        <v>5.6096587684949011</v>
       </c>
       <c r="F15" s="4">
-        <v>4.6769541831096841</v>
+        <v>6.9574883869403914</v>
       </c>
       <c r="G15">
-        <v>77.615573747440891</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1034,23 +1034,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>20.82920752070412</v>
-      </c>
-      <c r="C16" s="3">
-        <v>14.004998823068179</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6.6449097717588987</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.312758368515718</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4.9385992603943452</v>
+      <c r="B16" s="4">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C16" s="4">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G16">
-        <v>51.730473744441269</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1072,23 +1072,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>61.682518267644546</v>
-      </c>
-      <c r="C17" s="3">
-        <v>24.320930714179848</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.9589460388650934</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.0202389175824784</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.0254452280147346</v>
+      <c r="B17" s="4">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C17" s="4">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G17">
-        <v>106.00807916628671</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1110,23 +1110,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>40.204631038400187</v>
-      </c>
-      <c r="C18" s="3">
-        <v>13.749565227046469</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4.0980483520170887</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.5250240146898877</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.3037189525783024</v>
+      <c r="B18" s="4">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C18" s="4">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G18">
-        <v>68.88098758473194</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1137,8 +1137,8 @@
       <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1149,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>39.518513409862891</v>
+        <v>22.997577865505981</v>
       </c>
       <c r="C19" s="4">
-        <v>35.411497546441701</v>
+        <v>65.427929038497822</v>
       </c>
       <c r="D19" s="4">
-        <v>28.169953493168229</v>
+        <v>15.33610361683899</v>
       </c>
       <c r="E19" s="4">
-        <v>6.8553035102603603</v>
+        <v>5.6096587684949011</v>
       </c>
       <c r="F19" s="4">
-        <v>5.314994668602731</v>
+        <v>6.9574883869403914</v>
       </c>
       <c r="G19">
-        <v>115.2702626283359</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>22.327974416867882</v>
+        <v>22.997577865505981</v>
       </c>
       <c r="C20" s="4">
-        <v>46.454782021503583</v>
+        <v>65.427929038497822</v>
       </c>
       <c r="D20" s="4">
-        <v>6.8161357862647378</v>
+        <v>15.33610361683899</v>
       </c>
       <c r="E20" s="4">
-        <v>4.6949669137382486</v>
+        <v>5.6096587684949011</v>
       </c>
       <c r="F20" s="4">
-        <v>5.4176780501102293</v>
+        <v>6.9574883869403914</v>
       </c>
       <c r="G20">
-        <v>85.71153718848467</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1224,23 +1224,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>29.107750192893281</v>
-      </c>
-      <c r="C21" s="3">
-        <v>12.13705870076614</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13.374171187652729</v>
-      </c>
-      <c r="E21" s="3">
-        <v>14.217049368919289</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5.429169371367113</v>
+      <c r="B21" s="4">
+        <v>45.615117734380803</v>
+      </c>
+      <c r="C21" s="4">
+        <v>32.566991925500133</v>
+      </c>
+      <c r="D21" s="4">
+        <v>25.039721734179011</v>
+      </c>
+      <c r="E21" s="4">
+        <v>20.902851905634911</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18.00867592565336</v>
       </c>
       <c r="G21">
-        <v>74.265198821598545</v>
+        <v>142.13335922534819</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1263,22 +1263,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>14.366616110443321</v>
+        <v>1809.3810379391321</v>
       </c>
       <c r="C22" s="4">
-        <v>33.779014879715326</v>
+        <v>328.92160399326849</v>
       </c>
       <c r="D22" s="4">
-        <v>16.746098651755052</v>
+        <v>69.238317537377995</v>
       </c>
       <c r="E22" s="4">
-        <v>6.2860155220583334</v>
+        <v>35.889117701170953</v>
       </c>
       <c r="F22" s="4">
-        <v>5.551541888005497</v>
+        <v>19.145274396706832</v>
       </c>
       <c r="G22">
-        <v>76.729287051977522</v>
+        <v>2262.575351567657</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1300,23 +1300,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>83.069242812968241</v>
-      </c>
-      <c r="C23" s="3">
-        <v>29.837901454290691</v>
-      </c>
-      <c r="D23" s="3">
-        <v>52.408086431466543</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16.186442312113009</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5.7007799349152304</v>
+      <c r="B23" s="4">
+        <v>18.470330917288269</v>
+      </c>
+      <c r="C23" s="4">
+        <v>26.14505389356588</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22.13971996583647</v>
+      </c>
+      <c r="E23" s="4">
+        <v>26.929756202674952</v>
+      </c>
+      <c r="F23" s="4">
+        <v>46.156526621266522</v>
       </c>
       <c r="G23">
-        <v>187.20245294575369</v>
+        <v>139.84138760063209</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1339,22 +1339,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>144.4771136060038</v>
+        <v>56.101287645069277</v>
       </c>
       <c r="C24" s="3">
-        <v>34.272983162150076</v>
+        <v>23.4439481950219</v>
       </c>
       <c r="D24" s="3">
-        <v>6.4936740362311092</v>
+        <v>6.8044908923440994</v>
       </c>
       <c r="E24" s="3">
-        <v>9.1636205867119394</v>
+        <v>3.156050595027283</v>
       </c>
       <c r="F24" s="3">
-        <v>5.7916593146016666</v>
+        <v>1.805835676343416</v>
       </c>
       <c r="G24">
-        <v>200.19905070569871</v>
+        <v>91.311613003805945</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1376,23 +1376,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>49.734099248608807</v>
-      </c>
-      <c r="C25" s="4">
-        <v>64.934665669885732</v>
-      </c>
-      <c r="D25" s="4">
-        <v>8.6340027752338315</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7.8724772824589042</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5.9838563097097399</v>
+      <c r="B25" s="3">
+        <v>28.65023067673129</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20.298850243426461</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11.41719621549216</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.9081188035394949</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.2392119096313681</v>
       </c>
       <c r="G25">
-        <v>137.15910128589701</v>
+        <v>66.513607848820783</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1414,23 +1414,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C26" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D26" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F26" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B26" s="3">
+        <v>21.059371886295441</v>
+      </c>
+      <c r="C26" s="3">
+        <v>32.239069674654431</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.3310539425737429</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.7096343296451422</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.4297194989152211</v>
       </c>
       <c r="G26">
-        <v>116.3287576762781</v>
+        <v>61.768849332083967</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1452,23 +1452,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C27" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D27" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F27" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B27" s="3">
+        <v>45.389419338817909</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10.34654078566588</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5.2772298952180838</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.5400386109259729</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.1081625965532429</v>
       </c>
       <c r="G27">
-        <v>116.3287576762781</v>
+        <v>68.661391227181085</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1490,23 +1490,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C28" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D28" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F28" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B28" s="3">
+        <v>9848.3394662920618</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1006.016548828861</v>
+      </c>
+      <c r="D28" s="3">
+        <v>72.942700105629783</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10.388115537368179</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.2505578358248148</v>
       </c>
       <c r="G28">
-        <v>116.3287576762781</v>
+        <v>10940.93738859975</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1528,23 +1528,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C29" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B29" s="3">
+        <v>46.739892842285244</v>
+      </c>
+      <c r="C29" s="3">
+        <v>14.127586973250621</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.5237821833227301</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.0616173395362436</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.5911941186119689</v>
       </c>
       <c r="G29">
-        <v>116.3287576762781</v>
+        <v>73.044073457006803</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1566,23 +1566,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C30" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D30" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F30" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B30" s="3">
+        <v>25.709307160705741</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29.167522252486659</v>
+      </c>
+      <c r="D30" s="3">
+        <v>16.865040762204298</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6.0024211469967241</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.3647137266916154</v>
       </c>
       <c r="G30">
-        <v>116.3287576762781</v>
+        <v>82.109005049085027</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1604,23 +1604,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C31" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D31" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B31" s="3">
+        <v>16.079108685864458</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.7940118474465088</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8.0142927334192571</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.0614553617908404</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.5869894205610757</v>
       </c>
       <c r="G31">
-        <v>116.3287576762781</v>
+        <v>43.53585804908213</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1642,23 +1642,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C32" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D32" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F32" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B32" s="3">
+        <v>20.82920752070412</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14.004998823068179</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.6449097717588987</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.312758368515718</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.9385992603943452</v>
       </c>
       <c r="G32">
-        <v>116.3287576762781</v>
+        <v>51.730473744441269</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1680,23 +1680,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C33" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D33" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B33" s="3">
+        <v>61.682518267644546</v>
+      </c>
+      <c r="C33" s="3">
+        <v>24.320930714179848</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7.9589460388650934</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7.0202389175824784</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.0254452280147346</v>
       </c>
       <c r="G33">
-        <v>116.3287576762781</v>
+        <v>106.00807916628671</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>17</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1718,23 +1718,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C34" s="4">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D34" s="4">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F34" s="4">
-        <v>6.9574883869403914</v>
+      <c r="B34" s="3">
+        <v>40.204631038400187</v>
+      </c>
+      <c r="C34" s="3">
+        <v>13.749565227046469</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4.0980483520170887</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5.5250240146898877</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.3037189525783024</v>
       </c>
       <c r="G34">
-        <v>116.3287576762781</v>
+        <v>68.88098758473194</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>22</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1757,22 +1757,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>295.51199728932869</v>
+        <v>29.107750192893281</v>
       </c>
       <c r="C35" s="3">
-        <v>105.80720655271929</v>
+        <v>12.13705870076614</v>
       </c>
       <c r="D35" s="3">
-        <v>18.112225682586072</v>
+        <v>13.374171187652729</v>
       </c>
       <c r="E35" s="3">
-        <v>8.2095152097917463</v>
+        <v>14.217049368919289</v>
       </c>
       <c r="F35" s="3">
-        <v>8.4247123568936573</v>
+        <v>5.429169371367113</v>
       </c>
       <c r="G35">
-        <v>436.06565709131962</v>
+        <v>74.265198821598545</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>37.399853411206053</v>
+        <v>83.069242812968241</v>
       </c>
       <c r="C36" s="3">
-        <v>18.87132711498106</v>
+        <v>29.837901454290691</v>
       </c>
       <c r="D36" s="3">
-        <v>23.32476029048043</v>
+        <v>52.408086431466543</v>
       </c>
       <c r="E36" s="3">
-        <v>12.25607645691059</v>
+        <v>16.186442312113009</v>
       </c>
       <c r="F36" s="3">
-        <v>9.5639493560163462</v>
+        <v>5.7007799349152304</v>
       </c>
       <c r="G36">
-        <v>101.41596662959449</v>
+        <v>187.20245294575369</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1833,22 +1833,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>59.461192904323667</v>
+        <v>144.4771136060038</v>
       </c>
       <c r="C37" s="3">
-        <v>20.611867264170041</v>
+        <v>34.272983162150076</v>
       </c>
       <c r="D37" s="3">
-        <v>14.140919919957581</v>
+        <v>6.4936740362311092</v>
       </c>
       <c r="E37" s="3">
-        <v>10.60593255102691</v>
+        <v>9.1636205867119394</v>
       </c>
       <c r="F37" s="3">
-        <v>9.7398671991345793</v>
+        <v>5.7916593146016666</v>
       </c>
       <c r="G37">
-        <v>114.5597798386128</v>
+        <v>200.19905070569871</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1871,22 +1871,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>1681.6264786838669</v>
+        <v>295.51199728932869</v>
       </c>
       <c r="C38" s="3">
-        <v>259.72880878467362</v>
+        <v>105.80720655271929</v>
       </c>
       <c r="D38" s="3">
-        <v>66.342861385372075</v>
+        <v>18.112225682586072</v>
       </c>
       <c r="E38" s="3">
-        <v>29.808418897497191</v>
+        <v>8.2095152097917463</v>
       </c>
       <c r="F38" s="3">
-        <v>12.17162671655346</v>
+        <v>8.4247123568936573</v>
       </c>
       <c r="G38">
-        <v>2049.6781944679628</v>
+        <v>436.06565709131962</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>33.606248960559043</v>
+        <v>37.399853411206053</v>
       </c>
       <c r="C39" s="3">
-        <v>16.74702181622915</v>
+        <v>18.87132711498106</v>
       </c>
       <c r="D39" s="3">
-        <v>10.630002506488291</v>
+        <v>23.32476029048043</v>
       </c>
       <c r="E39" s="3">
-        <v>13.447224337531409</v>
+        <v>12.25607645691059</v>
       </c>
       <c r="F39" s="3">
-        <v>16.13197956364392</v>
+        <v>9.5639493560163462</v>
       </c>
       <c r="G39">
-        <v>90.562477184451808</v>
+        <v>101.41596662959449</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1946,23 +1946,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>45.615117734380803</v>
-      </c>
-      <c r="C40" s="4">
-        <v>32.566991925500133</v>
-      </c>
-      <c r="D40" s="4">
-        <v>25.039721734179011</v>
-      </c>
-      <c r="E40" s="4">
-        <v>20.902851905634911</v>
-      </c>
-      <c r="F40" s="4">
-        <v>18.00867592565336</v>
+      <c r="B40" s="3">
+        <v>59.461192904323667</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20.611867264170041</v>
+      </c>
+      <c r="D40" s="3">
+        <v>14.140919919957581</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10.60593255102691</v>
+      </c>
+      <c r="F40" s="3">
+        <v>9.7398671991345793</v>
       </c>
       <c r="G40">
-        <v>142.13335922534819</v>
+        <v>114.5597798386128</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
@@ -1984,23 +1984,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>1809.3810379391321</v>
-      </c>
-      <c r="C41" s="4">
-        <v>328.92160399326849</v>
-      </c>
-      <c r="D41" s="4">
-        <v>69.238317537377995</v>
-      </c>
-      <c r="E41" s="4">
-        <v>35.889117701170953</v>
-      </c>
-      <c r="F41" s="4">
-        <v>19.145274396706832</v>
+      <c r="B41" s="3">
+        <v>1681.6264786838669</v>
+      </c>
+      <c r="C41" s="3">
+        <v>259.72880878467362</v>
+      </c>
+      <c r="D41" s="3">
+        <v>66.342861385372075</v>
+      </c>
+      <c r="E41" s="3">
+        <v>29.808418897497191</v>
+      </c>
+      <c r="F41" s="3">
+        <v>12.17162671655346</v>
       </c>
       <c r="G41">
-        <v>2262.575351567657</v>
+        <v>2049.6781944679628</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>24</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2023,22 +2023,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>31.759400486109101</v>
+        <v>33.606248960559043</v>
       </c>
       <c r="C42" s="3">
-        <v>15.59701318483326</v>
+        <v>16.74702181622915</v>
       </c>
       <c r="D42" s="3">
-        <v>19.19012815088724</v>
+        <v>10.630002506488291</v>
       </c>
       <c r="E42" s="3">
-        <v>21.8782282309142</v>
+        <v>13.447224337531409</v>
       </c>
       <c r="F42" s="3">
-        <v>22.966383960047171</v>
+        <v>16.13197956364392</v>
       </c>
       <c r="G42">
-        <v>111.39115401279101</v>
+        <v>90.562477184451808</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2061,22 +2061,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>82.86596872849708</v>
+        <v>31.759400486109101</v>
       </c>
       <c r="C43" s="3">
-        <v>39.797292464116637</v>
+        <v>15.59701318483326</v>
       </c>
       <c r="D43" s="3">
-        <v>12.9501991271236</v>
+        <v>19.19012815088724</v>
       </c>
       <c r="E43" s="3">
-        <v>19.685092213170169</v>
+        <v>21.8782282309142</v>
       </c>
       <c r="F43" s="3">
-        <v>29.061832133725211</v>
+        <v>22.966383960047171</v>
       </c>
       <c r="G43">
-        <v>184.36038466663271</v>
+        <v>111.39115401279101</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2098,23 +2098,23 @@
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
-        <v>18.470330917288269</v>
-      </c>
-      <c r="C44" s="4">
-        <v>26.14505389356588</v>
-      </c>
-      <c r="D44" s="4">
-        <v>22.13971996583647</v>
-      </c>
-      <c r="E44" s="4">
-        <v>26.929756202674952</v>
-      </c>
-      <c r="F44" s="4">
-        <v>46.156526621266522</v>
+      <c r="B44" s="3">
+        <v>82.86596872849708</v>
+      </c>
+      <c r="C44" s="3">
+        <v>39.797292464116637</v>
+      </c>
+      <c r="D44" s="3">
+        <v>12.9501991271236</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19.685092213170169</v>
+      </c>
+      <c r="F44" s="3">
+        <v>29.061832133725211</v>
       </c>
       <c r="G44">
-        <v>139.84138760063209</v>
+        <v>184.36038466663271</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>23</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
